--- a/horarios_optimizados-846-push_gap_0.80.xlsx
+++ b/horarios_optimizados-846-push_gap_0.80.xlsx
@@ -640,27 +640,19 @@
       <c r="F6" s="4" t="inlineStr"/>
       <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="4" t="inlineStr"/>
       <c r="L6" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -718,11 +710,31 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr"/>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr"/>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -733,32 +745,20 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I7" s="4" t="inlineStr"/>
+      <c r="J7" s="4" t="inlineStr"/>
+      <c r="K7" s="4" t="inlineStr"/>
+      <c r="L7" s="4" t="inlineStr"/>
       <c r="M7" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N7" s="4" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -811,7 +811,11 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -845,11 +849,7 @@
       <c r="I8" s="4" t="inlineStr"/>
       <c r="J8" s="4" t="inlineStr"/>
       <c r="K8" s="4" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L8" s="4" t="inlineStr"/>
       <c r="M8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -919,21 +919,9 @@
       <c r="F9" s="4" t="inlineStr"/>
       <c r="G9" s="4" t="inlineStr"/>
       <c r="H9" s="4" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I9" s="4" t="inlineStr"/>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
       <c r="L9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -954,7 +942,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr"/>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1073,8 +1065,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1089,11 +1089,7 @@
       <c r="F11" s="4" t="inlineStr"/>
       <c r="G11" s="4" t="inlineStr"/>
       <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I11" s="4" t="inlineStr"/>
       <c r="J11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1124,7 +1120,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P11" s="4" t="inlineStr"/>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1239,45 +1239,33 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="inlineStr"/>
+      <c r="G15" s="4" t="inlineStr"/>
+      <c r="H15" s="4" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1303,11 +1291,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R15" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R15" s="4" t="inlineStr"/>
       <c r="S15" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1346,22 +1330,82 @@
       <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr"/>
       <c r="G16" s="4" t="inlineStr"/>
-      <c r="H16" s="4" t="inlineStr"/>
-      <c r="I16" s="4" t="inlineStr"/>
-      <c r="J16" s="4" t="inlineStr"/>
-      <c r="K16" s="4" t="inlineStr"/>
-      <c r="L16" s="4" t="inlineStr"/>
-      <c r="M16" s="4" t="inlineStr"/>
-      <c r="N16" s="4" t="inlineStr"/>
-      <c r="O16" s="4" t="inlineStr"/>
-      <c r="P16" s="4" t="inlineStr"/>
-      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R16" s="4" t="inlineStr"/>
-      <c r="S16" s="4" t="inlineStr"/>
-      <c r="T16" s="4" t="inlineStr"/>
-      <c r="U16" s="4" t="inlineStr"/>
-      <c r="V16" s="4" t="inlineStr"/>
-      <c r="W16" s="4" t="inlineStr"/>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -1369,35 +1413,35 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr"/>
       <c r="F17" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1408,11 +1452,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M17" s="4" t="inlineStr"/>
       <c r="N17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1470,67 +1510,19 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr"/>
       <c r="F18" s="4" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G18" s="4" t="inlineStr"/>
+      <c r="H18" s="4" t="inlineStr"/>
+      <c r="I18" s="4" t="inlineStr"/>
+      <c r="J18" s="4" t="inlineStr"/>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
+      <c r="M18" s="4" t="inlineStr"/>
+      <c r="N18" s="4" t="inlineStr"/>
       <c r="O18" s="4" t="inlineStr"/>
       <c r="P18" s="4" t="inlineStr"/>
       <c r="Q18" s="4" t="inlineStr"/>
@@ -1547,26 +1539,10 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
       <c r="F19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1582,9 +1558,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="4" t="inlineStr"/>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L19" s="4" t="inlineStr"/>
       <c r="M19" s="5" t="inlineStr">
         <is>
@@ -1611,7 +1599,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R19" s="4" t="inlineStr"/>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S19" s="4" t="inlineStr"/>
       <c r="T19" s="4" t="inlineStr"/>
       <c r="U19" s="4" t="inlineStr"/>
@@ -1624,28 +1616,40 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H20" s="4" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
       <c r="L20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1681,7 +1685,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S20" s="4" t="inlineStr"/>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1709,45 +1717,33 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I21" s="4" t="inlineStr"/>
-      <c r="J21" s="4" t="inlineStr"/>
-      <c r="K21" s="4" t="inlineStr"/>
-      <c r="L21" s="4" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1763,11 +1759,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P21" s="4" t="inlineStr"/>
       <c r="Q21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1783,8 +1775,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T21" s="4" t="inlineStr"/>
-      <c r="U21" s="4" t="inlineStr"/>
+      <c r="T21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
     </row>
@@ -1874,39 +1874,55 @@
           <t>Lun</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
-      <c r="E25" s="4" t="inlineStr"/>
-      <c r="F25" s="4" t="inlineStr"/>
-      <c r="G25" s="4" t="inlineStr"/>
-      <c r="H25" s="4" t="inlineStr"/>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr"/>
+      <c r="J25" s="4" t="inlineStr"/>
+      <c r="K25" s="4" t="inlineStr"/>
+      <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="N25" s="4" t="inlineStr"/>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2023,36 +2039,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R26" s="4" t="inlineStr"/>
+      <c r="S26" s="4" t="inlineStr"/>
+      <c r="T26" s="4" t="inlineStr"/>
+      <c r="U26" s="4" t="inlineStr"/>
+      <c r="V26" s="4" t="inlineStr"/>
+      <c r="W26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -2096,7 +2088,11 @@
       <c r="F28" s="4" t="inlineStr"/>
       <c r="G28" s="4" t="inlineStr"/>
       <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2117,11 +2113,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N28" s="4" t="inlineStr"/>
       <c r="O28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2142,7 +2134,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="T28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2170,29 +2166,45 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="4" t="inlineStr"/>
-      <c r="D29" s="4" t="inlineStr"/>
-      <c r="E29" s="4" t="inlineStr"/>
-      <c r="F29" s="4" t="inlineStr"/>
-      <c r="G29" s="4" t="inlineStr"/>
-      <c r="H29" s="4" t="inlineStr"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I29" s="4" t="inlineStr"/>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="4" t="inlineStr"/>
+      <c r="L29" s="4" t="inlineStr"/>
       <c r="M29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2203,7 +2215,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O29" s="4" t="inlineStr"/>
+      <c r="O29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2251,40 +2267,28 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="4" t="inlineStr"/>
-      <c r="I30" s="4" t="inlineStr"/>
-      <c r="J30" s="4" t="inlineStr"/>
-      <c r="K30" s="4" t="inlineStr"/>
+      <c r="I30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2300,11 +2304,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O30" s="4" t="inlineStr"/>
       <c r="P30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2335,16 +2335,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V30" s="4" t="inlineStr"/>
+      <c r="W30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2352,33 +2344,45 @@
           <t>Dom</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr"/>
-      <c r="C31" s="4" t="inlineStr"/>
-      <c r="D31" s="4" t="inlineStr"/>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
-      <c r="G31" s="4" t="inlineStr"/>
-      <c r="H31" s="4" t="inlineStr"/>
-      <c r="I31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr"/>
+      <c r="J31" s="4" t="inlineStr"/>
+      <c r="K31" s="4" t="inlineStr"/>
+      <c r="L31" s="4" t="inlineStr"/>
       <c r="M31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2389,7 +2393,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O31" s="4" t="inlineStr"/>
+      <c r="O31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2410,16 +2418,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="T31" s="4" t="inlineStr"/>
+      <c r="U31" s="4" t="inlineStr"/>
       <c r="V31" s="4" t="inlineStr"/>
       <c r="W31" s="4" t="inlineStr"/>
     </row>
@@ -2839,30 +2839,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2882,17 +2872,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -2901,10 +2891,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2925,7 +2915,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2935,7 +2925,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2947,7 +2937,7 @@
         <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2968,30 +2958,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3026,11 +3006,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
         <v>0.5</v>
@@ -3054,19 +3034,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>20:00</t>
@@ -3075,9 +3047,7 @@
       <c r="H8" t="n">
         <v>6</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3097,17 +3067,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3116,10 +3086,10 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3140,17 +3110,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -3171,17 +3153,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3190,10 +3172,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
@@ -3214,29 +3196,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>12:30</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3257,12 +3227,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -3272,14 +3242,14 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H13" t="n">
         <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
@@ -3300,17 +3270,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3319,10 +3289,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3343,29 +3313,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -3386,17 +3356,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -3405,10 +3375,10 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3444,11 +3414,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -3503,17 +3473,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3522,7 +3492,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
         <v>0.5</v>
@@ -3546,17 +3516,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3565,10 +3535,10 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3589,29 +3559,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -3632,29 +3602,29 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>16:30</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
